--- a/data/trans_dic/P25A_8_R2-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25A_8_R2-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida</t>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>9,05%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>7,0%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,07</t>
+          <t>1,27; 3,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,33</t>
+          <t>1,66; 4,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,23</t>
+          <t>2,21; 5,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 29,23</t>
+          <t>2,06; 4,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,74</t>
+          <t>4,65; 8,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 5,99</t>
+          <t>3,1; 7,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,61</t>
+          <t>2,85; 5,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,92; 28,91</t>
+          <t>3,41; 6,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 4,45</t>
+          <t>3,36; 6,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,83; 4,71</t>
+          <t>3,34; 6,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 4,97</t>
+          <t>5,73; 9,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,5; 26,24</t>
+          <t>6,86; 11,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 4,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>3,06; 5,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 5,05</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>5,65; 8,22</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>5,51; 8,75</t>
         </is>
       </c>
     </row>
@@ -796,12 +905,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -811,47 +920,77 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,29%</t>
+          <t>8,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,45</t>
+          <t>1,33; 4,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,79</t>
+          <t>1,26; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,02</t>
+          <t>1,86; 5,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 21,95</t>
+          <t>0,89; 4,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,65</t>
+          <t>2,34; 8,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,81</t>
+          <t>3,37; 7,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 7,7</t>
+          <t>2,85; 7,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,25; 50,46</t>
+          <t>1,75; 4,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,82</t>
+          <t>3,4; 9,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,95; 3,92</t>
+          <t>5,75; 14,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 5,53</t>
+          <t>8,69; 17,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,43; 35,05</t>
+          <t>5,85; 11,0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,35; 4,98</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 3,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 6,28</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 8,11</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 11,56</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,02; 8,46</t>
         </is>
       </c>
     </row>
@@ -936,17 +1105,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,42 +1125,72 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,71%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1203,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 7,09</t>
+          <t>0,83; 7,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 5,83</t>
+          <t>0,62; 5,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 10,46</t>
+          <t>1,91; 10,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1223,72 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 7,73</t>
+          <t>1,69; 11,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 14,92</t>
+          <t>1,51; 8,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>1,48; 7,26</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 15,12</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 5,93</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 5,3</t>
-        </is>
-      </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
+          <t>6,37; 17,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 6,92</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 5,56</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 11,23</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 12,19</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,64%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>4,44%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7,23%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,61</t>
+          <t>1,61; 3,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,43</t>
+          <t>1,81; 3,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 4,67</t>
+          <t>2,51; 4,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,21; 23,75</t>
+          <t>2,05; 4,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 5,33</t>
+          <t>4,53; 7,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,89</t>
+          <t>3,61; 6,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,5</t>
+          <t>3,23; 5,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 32,53</t>
+          <t>3,09; 5,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,6; 4,08</t>
+          <t>4,24; 7,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,9</t>
+          <t>4,46; 7,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 5,19</t>
+          <t>7,02; 10,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 26,81</t>
+          <t>7,39; 10,75</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 4,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 3,84</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3,63; 5,45</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,48; 5,32</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>6,22; 8,43</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5,81; 8,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por alergias crónicas (rinitis, inflamación de ojos, dermatitis, alergia a los alimentos, etc), asma alérgica excluida (tasa de respuesta: 99,86%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35762</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43494</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>55890</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7487</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14537</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>77541</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>74026</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>83475</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81790</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>10917</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17246</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>163170</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>109788</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>126969</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>137680</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18404</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>31783</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>240711</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>21050; 61555</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27344; 70147</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36146; 86853</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4711; 11271</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10612; 19299</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>50817; 118284</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>51256; 104622</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62091; 114183</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>61015; 109401</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7905; 14910</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13516; 21833</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>123639; 211532</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82218; 148472</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>95465; 163869</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>105719; 177537</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>14129; 23523</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>26216; 38151</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>189467; 301030</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35759</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>32883</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>42063</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3322</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>71793</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>61170</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40812</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>71078</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8573</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>109808</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96929</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>73695</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>113141</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7393</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11894</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>181601</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>18256; 68232</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17394; 54332</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25728; 77694</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>641; 3277</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1713; 6259</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>46575; 108750</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>39613; 97452</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24074; 60014</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47042; 137179</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3732; 9176</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5815; 12015</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>79947; 150182</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>64813; 137240</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>52798; 103988</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78801; 173312</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4966; 11134</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>8783; 16200</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>138057; 232404</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11861</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10251</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21683</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19843</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>17613</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14883</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>39987</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44521</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29475</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>25134</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>61670</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>64364</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3428; 30948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2609; 24883</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7933; 44945</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7134; 47803</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6170; 34815</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6074; 29752</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>23661; 62278</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26252; 71360</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14432; 57071</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>13046; 46267</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>39584; 92963</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>39869; 101785</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>83382</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>86628</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>119636</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9092</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>17858</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>169176</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>152809</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>139170</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>192855</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>16705</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25819</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>317499</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>236191</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>225798</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>312491</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>25797</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>43678</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>486675</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>55245; 126836</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>62275; 116787</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86100; 163901</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>6173; 13220</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13666; 22816</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>124327; 221633</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>116121; 194878</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111423; 180089</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153048; 255468</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>13434; 21980</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>21253; 30986</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>264713; 384997</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>189863; 290549</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>181149; 270445</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>256064; 383653</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>21004; 32081</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>37575; 50932</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>408128; 562859</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
